--- a/biology/Botanique/Disneyodendron/Disneyodendron.xlsx
+++ b/biology/Botanique/Disneyodendron/Disneyodendron.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Disneyodendron est un genre imaginaire d'arbres artificiels, conçu par la Walt Disney Company dans plusieurs de ses parcs à thèmes. Le nom signifie « arbre Disney » et à ce titre il pourrait être déclaré comme endémique.
 Il existe plusieurs variétés, deux de « petites » tailles et une gigantesque.
@@ -512,9 +524,11 @@
           <t>Disneyodendron eximus et Disneyodendron semperflorens subsp. grandis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette taxinomie fictive mais réaliste est uniquement due au souci du détail apporté par les spécialistes de Walt Disney Imagineering qui n'est apparue que vers la fin des années 1960, d'abord avec la terminaison Disneyodendron semperflorens subsp. grandis (« grand arbre Disney toujours florissant ») en Californie puis, en 1971 avec Disneyodendron eximus (« arbre Disney extraordinaire ») pour l'arbre de Floride[1]. En fait, seuls le genre Disneyodendron et les espèces qui y appartiennent sont fictifs, les taxons d'ordre supérieur (notamment la famille des Moraceae) existent réellement. Les deux dénominations sont différentes car d'un point de vue botanique le climat de Floride et celui de Californie sont différents, ainsi les deux arbres ne peuvent pas être exactement de la même espèce.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette taxinomie fictive mais réaliste est uniquement due au souci du détail apporté par les spécialistes de Walt Disney Imagineering qui n'est apparue que vers la fin des années 1960, d'abord avec la terminaison Disneyodendron semperflorens subsp. grandis (« grand arbre Disney toujours florissant ») en Californie puis, en 1971 avec Disneyodendron eximus (« arbre Disney extraordinaire ») pour l'arbre de Floride. En fait, seuls le genre Disneyodendron et les espèces qui y appartiennent sont fictifs, les taxons d'ordre supérieur (notamment la famille des Moraceae) existent réellement. Les deux dénominations sont différentes car d'un point de vue botanique le climat de Floride et celui de Californie sont différents, ainsi les deux arbres ne peuvent pas être exactement de la même espèce.
 L'arbre s'inspire du figuier des banians (Ficus benghalensis) et de l'arbre à pain (Artocarpus altilis) de par ses racines, son bois et sa circonférence (ces deux arbres font d'ailleurs partie de la famille des Moraceae comme est censé en faire partie le genre fictif Disneyodendron). Cet arbre est semperflorens et assez grand pour que des hommes puissent y construire des habitations.
 Les exemplaires « trouvés » sont à :
 Disneyodendron semperflorens subsp. grandis à Disneyland : Swiss Family Treehouse de 1962 à 1998 puis Tarzan's Treehouse ;
@@ -553,12 +567,14 @@
           <t>Disneyodendron semperflorens subsp. gigantis</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe une sous-espèce le Disneyodendron semperflorens subsp. gigantis dont un seul exemplaire a été trouvé.
 Disney's Animal Kingdom : Tree of Life depuis le 1er avril 1998.
-L'arbre s'élève à 44 mètres au-dessus du sol avec un diamètre à sa base de 15 mètres[2].
-Cet arbre possède un tronc sculpté où 325 espèces animales sont reconnaissables et contient une salle de cinéma de 420 places[2].
+L'arbre s'élève à 44 mètres au-dessus du sol avec un diamètre à sa base de 15 mètres.
+Cet arbre possède un tronc sculpté où 325 espèces animales sont reconnaissables et contient une salle de cinéma de 420 places.
 </t>
         </is>
       </c>
